--- a/data/trans_orig/P33b_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50392A5C-8A07-45FB-B2D8-3948780E8C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87E887FA-58C6-4151-AFCF-5F525AA2C89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{24465FC8-C8C6-4233-83E9-DBFC66C282EF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE573078-FBA2-4D59-A1ED-3E15375B3C3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>Población que se despierta demasiado temprano (de forma involuntaria) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>6,49%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>93,51%</t>
   </si>
   <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,19 +137,19 @@
     <t>6,06%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>8,51%</t>
@@ -158,31 +158,31 @@
     <t>6,47%</t>
   </si>
   <si>
-    <t>10,88%</t>
+    <t>10,83%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>91,49%</t>
   </si>
   <si>
-    <t>89,12%</t>
+    <t>89,17%</t>
   </si>
   <si>
     <t>93,53%</t>
@@ -194,10 +194,10 @@
     <t>14,65%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
   </si>
   <si>
     <t>13,86%</t>
@@ -206,7 +206,7 @@
     <t>11,55%</t>
   </si>
   <si>
-    <t>16,4%</t>
+    <t>16,72%</t>
   </si>
   <si>
     <t>14,25%</t>
@@ -215,22 +215,22 @@
     <t>12,27%</t>
   </si>
   <si>
-    <t>16,41%</t>
+    <t>16,3%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>83,6%</t>
+    <t>83,28%</t>
   </si>
   <si>
     <t>88,45%</t>
@@ -239,7 +239,7 @@
     <t>85,75%</t>
   </si>
   <si>
-    <t>83,59%</t>
+    <t>83,7%</t>
   </si>
   <si>
     <t>87,73%</t>
@@ -251,55 +251,55 @@
     <t>15,56%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
   </si>
   <si>
     <t>19,1%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>77,47%</t>
   </si>
   <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
   </si>
   <si>
     <t>80,9%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>17,96%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
   </si>
   <si>
     <t>30,85%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>69,15%</t>
   </si>
   <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,103 +365,109 @@
     <t>26,09%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
   </si>
   <si>
     <t>30,76%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
   </si>
   <si>
     <t>69,24%</t>
   </si>
   <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
   </si>
   <si>
     <t>71,13%</t>
   </si>
   <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>17,69%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>78,52%</t>
   </si>
   <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>82,31%</t>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8688AAC7-EFF3-43C5-A752-56E3EA073A78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8340D09-8321-4FE1-A10C-95FD572FA082}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1772,7 +1778,7 @@
         <v>269</v>
       </c>
       <c r="D19" s="7">
-        <v>182071</v>
+        <v>182072</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1874,7 +1880,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1966,7 +1972,7 @@
         <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>2848855</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>4080</v>
@@ -1996,13 +2002,13 @@
         <v>2987709</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6859</v>
@@ -2011,13 +2017,13 @@
         <v>5836564</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87E887FA-58C6-4151-AFCF-5F525AA2C89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{425F9FCE-A104-4EE0-ADF7-0C6F8DEA082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE573078-FBA2-4D59-A1ED-3E15375B3C3B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F840D77B-92D3-4D27-8D0A-7EB28CA68C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8340D09-8321-4FE1-A10C-95FD572FA082}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5060F14E-87AC-4405-A6D1-90B13CDF489C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{425F9FCE-A104-4EE0-ADF7-0C6F8DEA082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ACA5E02-9059-4ABC-9AFA-E9B4A8B34914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F840D77B-92D3-4D27-8D0A-7EB28CA68C6E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{36CCC676-8D6A-4471-B17A-F499F8D41088}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población que se despierta demasiado temprano (de forma involuntaria) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>6,49%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>93,51%</t>
   </si>
   <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,19 +137,19 @@
     <t>6,06%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>8,51%</t>
@@ -158,31 +158,31 @@
     <t>6,47%</t>
   </si>
   <si>
-    <t>10,83%</t>
+    <t>10,88%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>91,49%</t>
   </si>
   <si>
-    <t>89,17%</t>
+    <t>89,12%</t>
   </si>
   <si>
     <t>93,53%</t>
@@ -194,10 +194,10 @@
     <t>14,65%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>13,86%</t>
@@ -206,7 +206,7 @@
     <t>11,55%</t>
   </si>
   <si>
-    <t>16,72%</t>
+    <t>16,4%</t>
   </si>
   <si>
     <t>14,25%</t>
@@ -215,22 +215,22 @@
     <t>12,27%</t>
   </si>
   <si>
-    <t>16,3%</t>
+    <t>16,41%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>83,28%</t>
+    <t>83,6%</t>
   </si>
   <si>
     <t>88,45%</t>
@@ -239,7 +239,7 @@
     <t>85,75%</t>
   </si>
   <si>
-    <t>83,7%</t>
+    <t>83,59%</t>
   </si>
   <si>
     <t>87,73%</t>
@@ -251,55 +251,55 @@
     <t>15,56%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
   </si>
   <si>
     <t>19,1%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
   </si>
   <si>
     <t>77,47%</t>
   </si>
   <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>80,9%</t>
   </si>
   <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>17,96%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>30,85%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
   </si>
   <si>
     <t>69,15%</t>
   </si>
   <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +365,103 @@
     <t>26,09%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>30,76%</t>
   </si>
   <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
   </si>
   <si>
     <t>69,24%</t>
   </si>
   <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>71,13%</t>
   </si>
   <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>17,69%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>78,52%</t>
   </si>
   <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
+    <t>82,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5060F14E-87AC-4405-A6D1-90B13CDF489C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7817CED-2B04-4A24-837F-DE52EBFE4229}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1778,7 +1772,7 @@
         <v>269</v>
       </c>
       <c r="D19" s="7">
-        <v>182072</v>
+        <v>182071</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1880,7 +1874,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1972,7 +1966,7 @@
         <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1981,13 @@
         <v>2848855</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>4080</v>
@@ -2002,13 +1996,13 @@
         <v>2987709</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6859</v>
@@ -2017,13 +2011,13 @@
         <v>5836564</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ACA5E02-9059-4ABC-9AFA-E9B4A8B34914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87328787-ED9D-483E-B322-5A3746EF7DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{36CCC676-8D6A-4471-B17A-F499F8D41088}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EBAC3340-9B67-44FD-AF7E-43697B8E748F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="164">
   <si>
     <t>Población que se despierta demasiado temprano (de forma involuntaria) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -65,403 +65,466 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>55/64</t>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>17,96%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>82,31%</t>
+    <t>84,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,8 +939,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7817CED-2B04-4A24-837F-DE52EBFE4229}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6C17B8-80FB-433D-A41E-22E7B0B87E37}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -997,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>24513</v>
+        <v>25904</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1012,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>15939</v>
+        <v>13631</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1027,7 +1090,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>40452</v>
+        <v>39536</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1048,7 +1111,7 @@
         <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>353166</v>
+        <v>374083</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1063,7 +1126,7 @@
         <v>198</v>
       </c>
       <c r="I5" s="7">
-        <v>339018</v>
+        <v>299569</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1078,7 +1141,7 @@
         <v>360</v>
       </c>
       <c r="N5" s="7">
-        <v>692184</v>
+        <v>673651</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1099,7 +1162,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1114,7 +1177,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1129,7 +1192,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1152,7 +1215,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>25957</v>
+        <v>25808</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1167,7 +1230,7 @@
         <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>52923</v>
+        <v>47721</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1182,7 +1245,7 @@
         <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>78880</v>
+        <v>73529</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1203,7 +1266,7 @@
         <v>285</v>
       </c>
       <c r="D8" s="7">
-        <v>402439</v>
+        <v>397739</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1218,7 +1281,7 @@
         <v>413</v>
       </c>
       <c r="I8" s="7">
-        <v>445654</v>
+        <v>463783</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1233,7 +1296,7 @@
         <v>698</v>
       </c>
       <c r="N8" s="7">
-        <v>848093</v>
+        <v>861522</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1254,7 +1317,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1269,7 +1332,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1284,7 +1347,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1307,7 +1370,7 @@
         <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>81517</v>
+        <v>77608</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1322,7 +1385,7 @@
         <v>117</v>
       </c>
       <c r="I10" s="7">
-        <v>80874</v>
+        <v>74842</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1337,7 +1400,7 @@
         <v>189</v>
       </c>
       <c r="N10" s="7">
-        <v>162391</v>
+        <v>152451</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1358,7 +1421,7 @@
         <v>473</v>
       </c>
       <c r="D11" s="7">
-        <v>474763</v>
+        <v>457761</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1373,7 +1436,7 @@
         <v>729</v>
       </c>
       <c r="I11" s="7">
-        <v>502602</v>
+        <v>467626</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1388,7 +1451,7 @@
         <v>1202</v>
       </c>
       <c r="N11" s="7">
-        <v>977364</v>
+        <v>925386</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1409,7 +1472,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>556280</v>
+        <v>535369</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1424,7 +1487,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1439,7 +1502,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1139755</v>
+        <v>1077837</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1462,7 +1525,7 @@
         <v>109</v>
       </c>
       <c r="D13" s="7">
-        <v>112689</v>
+        <v>107558</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1477,7 +1540,7 @@
         <v>249</v>
       </c>
       <c r="I13" s="7">
-        <v>168273</v>
+        <v>153003</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1492,7 +1555,7 @@
         <v>358</v>
       </c>
       <c r="N13" s="7">
-        <v>280962</v>
+        <v>260560</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1513,7 +1576,7 @@
         <v>556</v>
       </c>
       <c r="D14" s="7">
-        <v>611301</v>
+        <v>780228</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1528,7 +1591,7 @@
         <v>891</v>
       </c>
       <c r="I14" s="7">
-        <v>578581</v>
+        <v>559495</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1543,7 +1606,7 @@
         <v>1447</v>
       </c>
       <c r="N14" s="7">
-        <v>1189882</v>
+        <v>1339725</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1564,7 +1627,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1579,7 +1642,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1594,7 +1657,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1617,7 +1680,7 @@
         <v>118</v>
       </c>
       <c r="D16" s="7">
-        <v>107576</v>
+        <v>98440</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1632,7 +1695,7 @@
         <v>297</v>
       </c>
       <c r="I16" s="7">
-        <v>183322</v>
+        <v>166306</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1647,7 +1710,7 @@
         <v>415</v>
       </c>
       <c r="N16" s="7">
-        <v>290898</v>
+        <v>264746</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1668,7 +1731,7 @@
         <v>544</v>
       </c>
       <c r="D17" s="7">
-        <v>491504</v>
+        <v>461764</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1683,7 +1746,7 @@
         <v>704</v>
       </c>
       <c r="I17" s="7">
-        <v>410979</v>
+        <v>379260</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1698,7 +1761,7 @@
         <v>1248</v>
       </c>
       <c r="N17" s="7">
-        <v>902483</v>
+        <v>841024</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1719,7 +1782,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1734,7 +1797,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>594301</v>
+        <v>545566</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1749,7 +1812,7 @@
         <v>1663</v>
       </c>
       <c r="N18" s="7">
-        <v>1193381</v>
+        <v>1105770</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1769,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>269</v>
+        <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>182071</v>
+        <v>74275</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1784,10 +1847,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>563</v>
+        <v>249</v>
       </c>
       <c r="I19" s="7">
-        <v>315762</v>
+        <v>124585</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1799,10 +1862,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>832</v>
+        <v>367</v>
       </c>
       <c r="N19" s="7">
-        <v>497834</v>
+        <v>198861</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1820,10 +1883,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>759</v>
+        <v>452</v>
       </c>
       <c r="D20" s="7">
-        <v>515683</v>
+        <v>293890</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1835,10 +1898,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>1145</v>
+        <v>578</v>
       </c>
       <c r="I20" s="7">
-        <v>710875</v>
+        <v>483783</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1850,10 +1913,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1904</v>
+        <v>1030</v>
       </c>
       <c r="N20" s="7">
-        <v>1226558</v>
+        <v>777672</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1871,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1886,10 +1949,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1901,10 +1964,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1918,55 +1981,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>595</v>
+        <v>151</v>
       </c>
       <c r="D22" s="7">
-        <v>534323</v>
+        <v>90737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>1282</v>
+        <v>314</v>
       </c>
       <c r="I22" s="7">
-        <v>817093</v>
+        <v>154409</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1877</v>
+        <v>465</v>
       </c>
       <c r="N22" s="7">
-        <v>1351416</v>
+        <v>245146</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,49 +2038,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2779</v>
+        <v>307</v>
       </c>
       <c r="D23" s="7">
-        <v>2848855</v>
+        <v>192022</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>4080</v>
+        <v>567</v>
       </c>
       <c r="I23" s="7">
-        <v>2987709</v>
+        <v>271422</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>6859</v>
+        <v>874</v>
       </c>
       <c r="N23" s="7">
-        <v>5836564</v>
+        <v>463444</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,63 +2089,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>595</v>
+      </c>
+      <c r="D25" s="7">
+        <v>500330</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1282</v>
+      </c>
+      <c r="I25" s="7">
+        <v>734497</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1877</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1234827</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2779</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2957488</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4080</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2924938</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6859</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5882426</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383178</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3457818</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5362</v>
       </c>
-      <c r="I24" s="7">
-        <v>3804802</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3659435</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8736</v>
       </c>
-      <c r="N24" s="7">
-        <v>7187980</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7117253</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
